--- a/projects/va_emerging_tech/negative_emission_tech/data/monte_carlo_inputs.xlsx
+++ b/projects/va_emerging_tech/negative_emission_tech/data/monte_carlo_inputs.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F756528-2E08-4081-9EAC-A299FED87E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91770CE9-258F-451F-A0D0-81117D27F246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="lowBio" sheetId="12" r:id="rId1"/>
-    <sheet name="highBio" sheetId="11" r:id="rId2"/>
+    <sheet name="lowDAClowBio" sheetId="13" r:id="rId1"/>
+    <sheet name="highDAClowBio" sheetId="12" r:id="rId2"/>
+    <sheet name="lowDAChighBio" sheetId="11" r:id="rId3"/>
+    <sheet name="highDAChighBio" sheetId="14" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="23">
   <si>
     <t>uniform</t>
   </si>
@@ -74,12 +85,6 @@
     <t>EC_DAC</t>
   </si>
   <si>
-    <t>EC_VFB</t>
-  </si>
-  <si>
-    <t>Lower: Bennett et al., Upper: Mouli-Castillo</t>
-  </si>
-  <si>
     <t>Fuels</t>
   </si>
   <si>
@@ -92,13 +97,7 @@
     <t>[PJ]</t>
   </si>
   <si>
-    <t>Lower: Li et al 10 hr, Upper: Beuse et al.</t>
-  </si>
-  <si>
     <t>Keith et al. early plant and Nth plant</t>
-  </si>
-  <si>
-    <t>EC_OCAES</t>
   </si>
   <si>
     <t>Lower: NETL Vol 2 &amp; Upper: Fajardy et al.</t>
@@ -443,24 +442,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C088720-46C9-4463-BD2A-99BFD76A219D}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D090CED1-715B-4CDE-8032-3562BD1177BF}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -492,7 +491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -519,10 +518,10 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -536,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1">
-        <v>2562</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>2562</v>
@@ -549,88 +548,40 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1457</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1457</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9191</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>52.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4317</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1820</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3781</v>
-      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>52.6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
+      <c r="J5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,24 +589,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9DF2A-4D9C-45A5-87BB-AF98F5BFA577}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C088720-46C9-4463-BD2A-99BFD76A219D}">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -687,7 +638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -714,10 +665,10 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -731,10 +682,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1">
-        <v>2562</v>
+        <v>3704</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>2562</v>
@@ -744,89 +695,336 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1457</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1457</v>
-      </c>
-      <c r="H4" s="1">
-        <v>9191</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4317</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1820</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3781</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
+      <c r="E4">
         <f>52.6*2</f>
         <v>105.2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F9DF2A-4D9C-45A5-87BB-AF98F5BFA577}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6874</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4781</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1174</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2562</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3704</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>52.6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4ED608-1F87-4AD4-BD1D-6B0112C64888}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6874</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4781</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1174</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3704</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2562</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3704</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f>52.6*2</f>
+        <v>105.2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
